--- a/scripts_on_ubuntu/Alchemy/week 5/week 5检查link代币.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 5/week 5检查link代币.xlsx
@@ -575,7 +575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:E248"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A199" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D214" activeCellId="0" sqref="D214"/>
@@ -6818,9 +6818,163 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>10</t>
+      <c r="D241" s="23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="23" t="inlineStr">
+        <is>
+          <t>0x2070964E56454cc21841b3A7f846F40276c7BD51</t>
+        </is>
+      </c>
+      <c r="B242" s="23" t="inlineStr">
+        <is>
+          <t>6a222fbe0b4936e8aecb30afc9d35c0098a716d6e36c518d8e6c84f3e93b468f</t>
+        </is>
+      </c>
+      <c r="C242" s="23" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D242" s="23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="23" t="inlineStr">
+        <is>
+          <t>0xabc8c021f8b2391610709A4E8EF80a8a671C45a0</t>
+        </is>
+      </c>
+      <c r="B243" s="23" t="inlineStr">
+        <is>
+          <t>e82fb24868229de03058b885d46c9d7e8229fa266402e3ec6a6aba2d6db533dc</t>
+        </is>
+      </c>
+      <c r="C243" s="23" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D243" s="23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="23" t="inlineStr">
+        <is>
+          <t>0x4a6C75Ba84D1A8ac552B6c28e7d4FFfAC1512b4F</t>
+        </is>
+      </c>
+      <c r="B244" s="23" t="inlineStr">
+        <is>
+          <t>45198394c3589d707ac2160eaacafc86db1c08be06d6bcc4a3af9d8617865503</t>
+        </is>
+      </c>
+      <c r="C244" s="23" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D244" s="23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="23" t="inlineStr">
+        <is>
+          <t>0xdabC96Df88C012C5704Da6e7a2DF972795a2Bc4B</t>
+        </is>
+      </c>
+      <c r="B245" s="23" t="inlineStr">
+        <is>
+          <t>157f426ebdfb4b59e2f34fb0249e2ed7b518306e63606187eb4a213b0f680fcd</t>
+        </is>
+      </c>
+      <c r="C245" s="23" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D245" s="23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="23" t="inlineStr">
+        <is>
+          <t>0x0EbDeb3cFe2f191598F6Df3A6997077ec9e1063b</t>
+        </is>
+      </c>
+      <c r="B246" s="23" t="inlineStr">
+        <is>
+          <t>d7af3d74028cf44ff0b7b4cfb56c962be094e8fcd9bc059b55c173e48bd8ef96</t>
+        </is>
+      </c>
+      <c r="C246" s="23" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D246" s="23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="23" t="inlineStr">
+        <is>
+          <t>0x363BB2974f45755EA39c88b9e19740dBD1Dde6aE</t>
+        </is>
+      </c>
+      <c r="B247" s="23" t="inlineStr">
+        <is>
+          <t>2bba840c4b13ebe1d497166e3987b83ed2ed69607b84a1cedd2b49b55f9bd0c9</t>
+        </is>
+      </c>
+      <c r="C247" s="23" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D247" s="23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="23" t="inlineStr">
+        <is>
+          <t>0x95843f4d8887116d3f5Ff8cd9419e4FF0d3bE1Fb</t>
+        </is>
+      </c>
+      <c r="B248" s="23" t="inlineStr">
+        <is>
+          <t>f422297b2bfe672bf322a1424be038e652b766146fbd49d848ecfd158d6bdd18</t>
+        </is>
+      </c>
+      <c r="C248" s="23" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>30</t>
         </is>
       </c>
     </row>
